--- a/biology/Zoologie/Euchloe_naina/Euchloe_naina.xlsx
+++ b/biology/Zoologie/Euchloe_naina/Euchloe_naina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euchloe naina  est un  insecte lépidoptère de la famille des Pieridae, de la sous-famille des Pierinae et du genre Euchloe.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euchloe naina a été nommé par Kozhanchikov en 1923[1].
-Nom vernaculaire
-Euchloe naina se nomme Green Marble en anglais  .
-Sous-espèces
-Euchloe naina naina
-Euchloe naina jakutia (Back, 1990)
-Euchloe naina occidentalis (Verity, 1908)[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euchloe naina a été nommé par Kozhanchikov en 1923.
+</t>
         </is>
       </c>
     </row>
@@ -544,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce papillon assez petit (son envergure varie de 30 à 36 mm) en majorité blanc présente sur le dessus à l'apex de l'aile antérieure une plage grise ponctuée de  blanc. Le revers de l'aile antérieure est blanc avec une tache noire et une plage verte à l'apex et celui de l'aile postérieure est presque totalement marbré de gris-vert[2].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euchloe naina se nomme Green Marble en anglais  .
 </t>
         </is>
       </c>
@@ -575,17 +590,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une seule génération en juin en Amérique du Nord, en juillet août en Asie[2],[3].
-Il hiverne au stade de chrysalide, souvent plus d'une année[3].
-Plantes hôtes
-Les plantes hôtes de la chenille sont des Sisymbrium, Descurainia sophioides[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euchloe naina naina
+Euchloe naina jakutia (Back, 1990)
+Euchloe naina occidentalis (Verity, 1908).</t>
         </is>
       </c>
     </row>
@@ -610,16 +628,196 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon assez petit (son envergure varie de 30 à 36 mm) en majorité blanc présente sur le dessus à l'apex de l'aile antérieure une plage grise ponctuée de  blanc. Le revers de l'aile antérieure est blanc avec une tache noire et une plage verte à l'apex et celui de l'aile postérieure est presque totalement marbré de gris-vert.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euchloe_naina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_naina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une seule génération en juin en Amérique du Nord, en juillet août en Asie,.
+Il hiverne au stade de chrysalide, souvent plus d'une année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euchloe_naina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_naina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Sisymbrium, Descurainia sophioides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euchloe_naina</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_naina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le nord-est de l'Asie, l'Altaï, le nord de la Mongolie, la Péninsule tchouktche[1]. Il est présent en Amérique du Nord dans l'Alaska et le Yukon, au Canada[2],[4].
-Biotope
-Il réside dans les montagnes inhabitées jusqu'à 2 800 mètres[3].
-Protection
-Il n'y a pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le nord-est de l'Asie, l'Altaï, le nord de la Mongolie, la Péninsule tchouktche. Il est présent en Amérique du Nord dans l'Alaska et le Yukon, au Canada,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euchloe_naina</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_naina</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les montagnes inhabitées jusqu'à 2 800 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euchloe_naina</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_naina</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de statut de protection particulier.
 </t>
         </is>
       </c>
